--- a/neutralization_assays/data/neut_plate_reader_data/574v2_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/574v2_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="5280" windowWidth="26840" windowHeight="11560" activeTab="2"/>
+    <workbookView xWindow="32580" yWindow="460" windowWidth="29400" windowHeight="17240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -406,12 +406,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -470,6 +464,12 @@
   </si>
   <si>
     <t>4/26/2019 10:36:13 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1100,67 +1102,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>10217</v>
@@ -1201,7 +1200,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31132</v>
@@ -1242,7 +1241,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31494</v>
@@ -1283,7 +1282,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>30691</v>
@@ -1324,7 +1323,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28958</v>
@@ -1365,7 +1364,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>32203</v>
@@ -1404,12 +1403,17 @@
         <v>29309</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1427,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,67 +1633,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8957</v>
@@ -1730,7 +1731,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>30678</v>
@@ -1771,7 +1772,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31091</v>
@@ -1812,7 +1813,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>31589</v>
@@ -1853,7 +1854,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28993</v>
@@ -1894,7 +1895,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29811</v>
@@ -1933,12 +1934,17 @@
         <v>30904</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1958,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2158,67 +2164,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>56</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6060</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28327</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>27961</v>
@@ -2341,7 +2344,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>26568</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26045</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>26777</v>
@@ -2462,12 +2465,17 @@
         <v>25615</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
